--- a/Docs/Design/Stats Design Docs.xlsx
+++ b/Docs/Design/Stats Design Docs.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="战棋模拟" sheetId="2" r:id="rId1"/>
-    <sheet name="程序支持的技能效果" sheetId="4" r:id="rId2"/>
+    <sheet name="特殊技能机制" sheetId="4" r:id="rId2"/>
     <sheet name="典型技能范围" sheetId="3" r:id="rId3"/>
     <sheet name="技能体系" sheetId="5" r:id="rId4"/>
+    <sheet name="英雄设计" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -22,7 +23,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="P25" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T28" authorId="0" shapeId="0">
+    <comment ref="AH10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,12 +63,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+考虑到技能的打断效果，可以略微降低AP消耗</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
   <si>
     <t>预期单局游戏回合数</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -108,10 +135,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每个技能随机命中率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>单方每回合技能覆盖格数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -232,163 +255,381 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>H</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger反制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：扑灭一团火</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger飞行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff:衍生效果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如在敌方英雄之间传递的闪电链</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹类技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff的idle时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来形成效果延迟触发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff的生效条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来形成效果combo，满足一系列条件达成最佳输出或者最佳防护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击频率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前摇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效延迟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后摇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正负</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小（绝对值）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovePoint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正负</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被克制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生效范围可以细而长，类似狙击手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带水晶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响AP消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.攻击频率，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均承受多少技能死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均英雄HP_Max</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均技能伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利所需水晶数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均英雄死亡掉落水晶数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>自然掉落水晶数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需击杀英雄次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合全技能随机释放命中率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狭路相逢（两个英雄同时占据同一格）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长有这几方面影响：
+1.前摇延长，增大自身技能被打断的几率
+2.前摇延长，增大敌方英雄位移的范围，释放反击技能的可能性
+3.瞬发技能会非常强力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.纯粹属于暴露弱点的技能，过长会大幅影响体验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.生效时间长可以极大增大命中率（这里有一个问题：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复算伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的问题）
+2.同时也属于增大了自身暴露的风险，但是比单纯暴露好得多</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊触发条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于减速状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于沉默状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值小于一定值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值大于一定值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移水晶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增大对手玩家所需记忆的负担（比如说延迟3step爆炸的炸弹）
+2.增大命中难度，形成威慑力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.减小敌方移动力，限制其回合内最大移动步数
+2.增大自身移动力，以使运送水晶、偷袭敌方基地等需要远距离位移的操作成为可能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.伤害或者治疗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自身的迅速位移，可以越过危险区域
+2.自身的迅速位移，增大单回合最大位移距离</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.这一类DOT技能在本游戏中尤其imba，首先是相当于增大了技能的命中率
+2.其次是相当于破坏了【庇护】的效果，绕过了【格挡】的效果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>换位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.与处于不利位置的队友单位交换位置，代替他承受伤害
+2.与处于优势位置的队友交换位置，以使可释放技能的英雄在更好的位置输出/辅助
+3.与敌方英雄交换位置，使其进入到己方的包围圈中
+4.与敌方英雄交换位置，打乱/拖慢其移动的节奏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使得合适的英雄拾取水晶，位移强的游戏运送水晶的combo成为可能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增大消耗：使对方的下回合能够部署的行动数量减少
+2.减小消耗：使自己****增多</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合单次攻击加伤害的效果，例如【易伤】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通移动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多次小额伤害，极易破坏【庇护】</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩散</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>散射</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trigger反制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如：扑灭一团火</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trigger飞行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff:衍生效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如在敌方英雄之间传递的闪电链</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹类技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff的idle时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来形成效果延迟触发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff的生效条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来形成效果combo，满足一系列条件达成最佳输出或者最佳防护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能特性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击频率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>前摇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效延迟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>位移</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>庇护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>易伤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉默</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>后摇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>中毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级特性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正负</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小（绝对值）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovePoint</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正负</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>有无</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>联动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>被克制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.生效范围可以细而长，类似狙击手</t>
+    <t>典型CD消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响CD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打乱对手的防御/进攻节奏
+2.加快己方的进攻/防御节奏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与队友距离小于一定值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与队友距离大于一定值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与敌方英雄距离小于一定值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>与敌方英雄距离大于一定值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【换位】【牵引】【击退】【眩晕】都会打断技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.【减速】【换位】【牵引】【击退】【眩晕】使预计的移动操作不能达成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,8 +733,41 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +828,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -713,6 +999,30 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,25 +1053,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1071,26 +1387,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="11" width="5.6640625" style="1"/>
+    <col min="12" max="20" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="25" width="5.6640625" style="1"/>
+    <col min="26" max="26" width="19.44140625" style="1" customWidth="1"/>
+    <col min="27" max="29" width="5.6640625" style="1"/>
+    <col min="30" max="30" width="16.77734375" style="1" customWidth="1"/>
+    <col min="31" max="32" width="5.6640625" style="1"/>
+    <col min="33" max="33" width="15.33203125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="5.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1100,8 +1416,24 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1111,8 +1443,26 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="Z2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1122,11 +1472,28 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="Z3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="25">
+        <f>$AA$2*$AB$2</f>
+        <v>135</v>
+      </c>
+      <c r="AB3" s="25"/>
+    </row>
+    <row r="4" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1135,23 +1502,62 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="19"/>
+      <c r="M4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="Z4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="27"/>
+    </row>
+    <row r="5" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="Z5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="28">
+        <f>$AA$3/$AA$4</f>
+        <v>22.5</v>
+      </c>
+      <c r="AB5" s="28"/>
+    </row>
+    <row r="6" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1161,50 +1567,119 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="Z6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="25">
+        <f>SQRT(AA5)</f>
+        <v>4.7434164902525691</v>
+      </c>
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="Z7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="25">
+        <f>$AA$3*0.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="AB7" s="25"/>
+      <c r="AD7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" s="5">
+        <f>$AA$7/2</f>
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+    </row>
+    <row r="9" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1213,21 +1688,77 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="19"/>
+      <c r="M10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="Z10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="25">
+        <f>$AA$11*$AA$12</f>
+        <v>30</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10" s="26">
+        <f>$AE$10/$AE$7</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="Z11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="23"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="25"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="26"/>
+    </row>
+    <row r="12" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1236,8 +1767,36 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="Z12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="23"/>
+      <c r="AD12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH12" s="20">
+        <f>$AE$12/$AA$13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1245,8 +1804,28 @@
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="Z13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="23"/>
+      <c r="AD13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+    </row>
+    <row r="14" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1256,8 +1835,36 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1267,241 +1874,158 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="3">
-        <v>9</v>
-      </c>
-      <c r="N20" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="17">
-        <f>$M$20*$N$20</f>
-        <v>135</v>
-      </c>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L22" s="2" t="s">
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="Z15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="4">
+        <f>ROUNDDOWN($AB$15+$AA$18*1.5,0)</f>
         <v>18</v>
       </c>
-      <c r="M22" s="19">
+      <c r="AB15" s="3">
         <v>6</v>
       </c>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="20">
-        <f>$M$21/$M$22</f>
-        <v>22.5</v>
-      </c>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="17">
-        <f>SQRT(M23)</f>
-        <v>4.7434164902525691</v>
-      </c>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="12:20" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="L25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="17">
-        <f>$M$21*0.5</f>
-        <v>67.5</v>
-      </c>
-      <c r="N25" s="17"/>
-      <c r="P25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="5">
-        <f>$M$25/2</f>
-        <v>33.75</v>
-      </c>
-    </row>
-    <row r="26" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
+      <c r="AD15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="22">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="23"/>
+      <c r="AD16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="22">
         <v>8</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="AB18" s="23"/>
+      <c r="AD18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+    </row>
+    <row r="19" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA19" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="23"/>
+      <c r="AD19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="23"/>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA21" s="25">
+        <f>ROUNDUP($AA$18/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AB21" s="25"/>
+    </row>
+    <row r="22" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA22" s="25">
+        <f>ROUNDUP(($AA$20-$AA$21)/$AA$19,0)</f>
         <v>6</v>
       </c>
-      <c r="N27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="12:20" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="L28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="14">
-        <v>5</v>
-      </c>
-      <c r="N28" s="15"/>
-      <c r="P28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="17">
-        <f>$M$28*$M$29</f>
-        <v>30</v>
-      </c>
-      <c r="S28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T28" s="18">
-        <f>$Q$28/$Q$25</f>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="29" spans="12:20" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="L29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="14">
-        <v>6</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="18"/>
-    </row>
-    <row r="30" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="12:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-    </row>
-    <row r="32" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="4">
-        <f>$N$32+$M$34</f>
-        <v>16</v>
-      </c>
-      <c r="N32" s="3">
-        <v>6</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="12:18" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="L33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="14">
-        <v>3</v>
-      </c>
-      <c r="N33" s="15"/>
-      <c r="P33" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="12:18" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="L34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="14">
-        <v>10</v>
-      </c>
-      <c r="N34" s="15"/>
-      <c r="P34" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>3</v>
-      </c>
-      <c r="R34" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="AB22" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
+  <mergeCells count="20">
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AA13:AB13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1515,62 +2039,62 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="82.44140625" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="32.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="24" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B7" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="B8" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1581,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:AE22"/>
+  <dimension ref="D4:AM22"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1592,18 +2116,19 @@
     <col min="1" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="13"/>
       <c r="P5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="AD5" s="13"/>
-    </row>
-    <row r="6" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK5" s="13"/>
+    </row>
+    <row r="6" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1614,12 +2139,15 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
       <c r="AD6" s="13"/>
-    </row>
-    <row r="7" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+    </row>
+    <row r="7" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1630,175 +2158,224 @@
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
-    </row>
-    <row r="8" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+    </row>
+    <row r="8" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="P8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="13"/>
     </row>
-    <row r="11" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="11" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="G11" s="11">
         <v>12</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="11">
         <v>5</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W11" s="11">
         <v>9</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD11" s="11">
         <v>6</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="O12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="O12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
+      <c r="V12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="V12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="23"/>
-      <c r="AC12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="23"/>
-    </row>
-    <row r="14" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="30"/>
+      <c r="X12" s="31"/>
+      <c r="AC12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="31"/>
+      <c r="AJ12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="31"/>
+    </row>
+    <row r="14" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="13"/>
       <c r="W14" s="13"/>
     </row>
-    <row r="15" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="13"/>
       <c r="W15" s="13"/>
-    </row>
-    <row r="16" spans="5:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="13"/>
+    </row>
+    <row r="16" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+    </row>
+    <row r="17" spans="4:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="13"/>
       <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+    </row>
+    <row r="18" spans="4:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="13"/>
+    </row>
+    <row r="19" spans="4:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="13"/>
       <c r="W19" s="13"/>
-    </row>
-    <row r="20" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="4:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="13"/>
       <c r="W20" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="4:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="11">
         <v>12</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P21" s="11">
         <v>8</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W21" s="11">
         <v>6</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="O22" s="21" t="s">
+      <c r="AC21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="4:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
-      <c r="V22" s="21" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="O22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="W22" s="22"/>
-      <c r="X22" s="23"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+      <c r="V22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="30"/>
+      <c r="X22" s="31"/>
+      <c r="AC22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AJ12:AL12"/>
     <mergeCell ref="AC12:AE12"/>
     <mergeCell ref="V22:X22"/>
     <mergeCell ref="F22:H22"/>
@@ -1814,183 +2391,382 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.5546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="63.109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="2" width="22.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="65.5546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="F9" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="21" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="D24" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="38"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="11">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Design/Stats Design Docs.xlsx
+++ b/Docs/Design/Stats Design Docs.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="战棋模拟" sheetId="2" r:id="rId1"/>
+    <sheet name="基础数值" sheetId="2" r:id="rId1"/>
     <sheet name="特殊技能机制" sheetId="4" r:id="rId2"/>
     <sheet name="典型技能范围" sheetId="3" r:id="rId3"/>
     <sheet name="设计约定" sheetId="11" r:id="rId4"/>
@@ -167,383 +167,383 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="222">
   <si>
     <t>预期单局游戏回合数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均单技能AP消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S3</t>
   </si>
   <si>
     <t>S2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP增长幅度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>典型AP消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最小</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最大</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均技能覆盖范围格数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单方每回合技能覆盖格数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均每回合单方释放技能数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄移动点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单方所有游戏占据格数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对战时单位占据格数（50%地图格）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人均占据边长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人均占据格数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总英雄数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总格数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>地图大小</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宽度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>H2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>H1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>H3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Crys</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远程狙击范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近战范围攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法师延展范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弓手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近战</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近战大范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>骑枪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>重武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Trigger反制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>比如：扑灭一团火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Trigger飞行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Buff:衍生效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>比如在敌方英雄之间传递的闪电链</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子弹类技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Buff的idle时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用来形成效果延迟触发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Buff的生效条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用来形成效果combo，满足一系列条件达成最佳输出或者最佳防护</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击频率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前摇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生效延迟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>位移</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>庇护</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>易伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>沉默</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>后摇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二级特性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>时长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>正负</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大小（绝对值）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大小</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>距离</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MovePoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>正负</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>有无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>联动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>被克制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.生效范围可以细而长，类似狙击手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>携带水晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>影响AP消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.攻击频率，</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均承受多少技能死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均英雄HP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均技能伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>胜利所需水晶数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均英雄死亡掉落水晶数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S4</t>
   </si>
   <si>
     <t>自然掉落水晶数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所需击杀英雄次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能特性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每回合全技能随机释放命中率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>狭路相逢（两个英雄同时占据同一格）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>时长有这几方面影响：
 1.前摇延长，增大自身技能被打断的几率
 2.前摇延长，增大敌方英雄位移的范围，释放反击技能的可能性
 3.瞬发技能会非常强力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.纯粹属于暴露弱点的技能，过长会大幅影响体验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -570,404 +570,404 @@
       <t>的问题）
 2.同时也属于增大了自身暴露的风险，但是比单纯暴露好得多</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于减速状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于沉默状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>影响</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命值小于一定值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生命值大于一定值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>转移水晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.增大对手玩家所需记忆的负担（比如说延迟3step爆炸的炸弹）
 2.增大命中难度，形成威慑力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.减小敌方移动力，限制其回合内最大移动步数
 2.增大自身移动力，以使运送水晶、偷袭敌方基地等需要远距离位移的操作成为可能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.伤害或者治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.自身的迅速位移，可以越过危险区域
 2.自身的迅速位移，增大单回合最大位移距离</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.这一类DOT技能在本游戏中尤其imba，首先是相当于增大了技能的命中率
 2.其次是相当于破坏了【庇护】的效果，绕过了【格挡】的效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>换位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.与处于不利位置的队友单位交换位置，代替他承受伤害
 2.与处于优势位置的队友交换位置，以使可释放技能的英雄在更好的位置输出/辅助
 3.与敌方英雄交换位置，使其进入到己方的包围圈中
 4.与敌方英雄交换位置，打乱/拖慢其移动的节奏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使得合适的英雄拾取水晶，位移强的游戏运送水晶的combo成为可能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.增大消耗：使对方的下回合能够部署的行动数量减少
 2.减小消耗：使自己****增多</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>配合单次攻击加伤害的效果，例如【易伤】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通移动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.多次小额伤害，极易破坏【庇护】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>扩散</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>散射</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>典型CD消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>影响CD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.打乱对手的防御/进攻节奏
 2.加快己方的进攻/防御节奏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与队友距离小于一定值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与队友距离大于一定值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与敌方英雄距离小于一定值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>与敌方英雄距离大于一定值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>【换位】【牵引】【击退】【眩晕】都会打断技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.【减速】【换位】【牵引】【击退】【眩晕】使预计的移动操作不能达成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>词缀效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>击退</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>牵引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中毒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.有层数，每一层抵挡一点所受伤害
 2.仅持续一回合
 3.仅英雄可具有此效果
 4.无法抵挡【中毒】伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>净化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>沉默</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Buff
 条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Trigger
 条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>所属英雄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游荡剑士</t>
   </si>
   <si>
     <t>游荡剑士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>圣愈者</t>
   </si>
   <si>
     <t>圣愈者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>暗影游侠</t>
   </si>
   <si>
     <t>暗影游侠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一级特性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>闪烁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>存在易伤则给予</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>易伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能/子效果名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.突然地闪现在另外一个位置，而不是连续地到达这个位置，因此可以用于穿越陷阱、躲避关键技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>被眩晕的英雄将直接跳过本回合的部署阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄被减速的标志，只要英雄当前移动力小于其最大移动力时，英雄处于减速状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于易伤的英雄，每次受到伤害都会被附加一点格外伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于中毒状态的英雄：每回合扣一点HP，同时移除一层中毒标记，直到中毒标记消失，中毒效果消除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>处于被庇护的英雄，可以阻挡一次任意一次攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英雄是否处于被沉默的状态标志，沉默时英雄不能释放任何主动技能（可以移动）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>定位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>机动、远程、输出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战士、半肉盾、输出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>治疗</t>
   </si>
   <si>
     <t>技能/子技能描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能Trigger范围类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能范围名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能范围ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>覆盖格数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>图形（默认朝上）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法师大范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近战-绽开</t>
   </si>
   <si>
     <t>近战-绽开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近战-爆炸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近战-突刺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>近战-横扫</t>
   </si>
   <si>
     <t>近战-横扫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身周-延展</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身周-扩散</t>
   </si>
   <si>
     <t>身周-扩散</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身周-大幅扩散</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远程-狙击</t>
   </si>
   <si>
     <t>远程-狙击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中距离-绽开</t>
   </si>
   <si>
     <t>中距离-绽开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>效果值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AP消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水晶消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前摇steps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>生效steps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>后摇steps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
@@ -980,106 +980,125 @@
   </si>
   <si>
     <t>MP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>特殊生效条件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>机动能力较强的远程输出角色，命中率在远程角色中已经算是较高</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远程-条型打击</t>
   </si>
   <si>
     <t>远程-条型打击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最大AP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>玩家最大AP不超过20，当玩家已经获得了20点后，地图不会再掉落AP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均每AP造成伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>平均每AP造成治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>法师、治疗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能级别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>子效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普攻技能</t>
   </si>
   <si>
     <t>普攻技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能级别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>远程狙击外加一小团炸开的伤害范围，拥有较长前摇，属于蓄力技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定Step轴长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单回合时长（min）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局游戏总时长（min）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1406,190 +1425,196 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2284,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH26"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2309,640 +2334,665 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="Z2" s="29" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="Z2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="19">
         <v>9</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AB2" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="Z3" s="29" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="Z3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="31">
+      <c r="AA3" s="51">
         <f>$AA$2*$AB$2</f>
         <v>135</v>
       </c>
-      <c r="AB3" s="31"/>
+      <c r="AB3" s="51"/>
     </row>
     <row r="4" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="32" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="Z4" s="29" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="Z4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA4" s="53">
         <v>6</v>
       </c>
-      <c r="AB4" s="33"/>
+      <c r="AB4" s="53"/>
     </row>
     <row r="5" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="32" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="32" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="32" t="s">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="Z5" s="34" t="s">
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="Z5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AA5" s="54">
         <f>$AA$3/$AA$4</f>
         <v>22.5</v>
       </c>
-      <c r="AB5" s="35"/>
+      <c r="AB5" s="54"/>
     </row>
     <row r="6" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="Z6" s="29" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="Z6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="51">
         <f>SQRT(AA5)</f>
         <v>4.7434164902525691</v>
       </c>
-      <c r="AB6" s="31"/>
+      <c r="AB6" s="51"/>
     </row>
     <row r="7" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="Z7" s="29" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="Z7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="31">
+      <c r="AA7" s="51">
         <f>$AA$3*0.5</f>
         <v>67.5</v>
       </c>
-      <c r="AB7" s="31"/>
-      <c r="AD7" s="29" t="s">
+      <c r="AB7" s="51"/>
+      <c r="AD7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AE7" s="26">
         <f>$AA$7/2</f>
         <v>33.75</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="38" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="38" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="38" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="39" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="39" t="s">
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29" t="s">
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AB9" s="29" t="s">
+      <c r="AB9" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="39" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="Z10" s="40" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="Z10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AA10" s="25">
+      <c r="AA10" s="19">
         <v>6</v>
       </c>
-      <c r="AB10" s="25">
+      <c r="AB10" s="19">
         <v>2</v>
       </c>
-      <c r="AD10" s="41" t="s">
+      <c r="AD10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AE10" s="31">
+      <c r="AE10" s="51">
         <f>$AA$11*$AA$12</f>
         <v>30</v>
       </c>
-      <c r="AG10" s="41" t="s">
+      <c r="AG10" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="AH10" s="42">
+      <c r="AH10" s="52">
         <f>$AE$10/$AE$7</f>
         <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="39" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="39" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="Z11" s="29" t="s">
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="Z11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AA11" s="48">
         <v>5</v>
       </c>
-      <c r="AB11" s="28"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="31"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="42"/>
+      <c r="AB11" s="49"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="51"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="52"/>
     </row>
     <row r="12" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="Z12" s="29" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="Z12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="27">
+      <c r="AA12" s="48">
         <v>6</v>
       </c>
-      <c r="AB12" s="28"/>
-      <c r="AD12" s="40" t="s">
+      <c r="AB12" s="49"/>
+      <c r="AD12" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AE12" s="19">
         <v>12</v>
       </c>
-      <c r="AG12" s="40" t="s">
+      <c r="AG12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AH12" s="43">
+      <c r="AH12" s="30">
         <f>$AE$12/$AA$13</f>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="Z13" s="44" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="Z13" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AA13" s="48">
         <v>4</v>
       </c>
-      <c r="AB13" s="28"/>
-      <c r="AD13" s="41" t="s">
+      <c r="AB13" s="49"/>
+      <c r="AD13" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
     </row>
     <row r="14" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="29" t="s">
+      <c r="AB14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AD14" s="29" t="s">
+      <c r="AD14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AE14" s="29" t="s">
+      <c r="AE14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF14" s="29" t="s">
+      <c r="AF14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AG14" s="29" t="s">
+      <c r="AG14" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="Z15" s="29" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="Z15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AA15" s="43">
+      <c r="AA15" s="30">
         <f>ROUNDDOWN($AB$15+$AA$18*1.5,0)</f>
-        <v>18</v>
-      </c>
-      <c r="AB15" s="25">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="19">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="19">
         <v>6</v>
       </c>
-      <c r="AD15" s="25">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="25">
+      <c r="AG15" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="48">
         <v>3</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AB16" s="49"/>
+      <c r="AD16" s="19">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="19">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="48">
         <v>6</v>
       </c>
-      <c r="AG15" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="27">
+      <c r="AB18" s="49"/>
+      <c r="AD18" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA19" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="49"/>
+      <c r="AD19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AB16" s="28"/>
-      <c r="AD16" s="25">
+      <c r="AF19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AE16" s="25">
+      <c r="AG19" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA20" s="48">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="49"/>
+      <c r="AD20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="19">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="19">
         <v>3</v>
       </c>
-      <c r="AF16" s="25">
-        <v>4</v>
-      </c>
-      <c r="AG16" s="25">
+    </row>
+    <row r="21" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA21" s="51">
+        <f>ROUNDUP($AA$18/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB21" s="51"/>
+    </row>
+    <row r="22" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA22" s="51">
+        <f>ROUNDUP(($AA$20-$AA$21)/$AA$19,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AB22" s="51"/>
+    </row>
+    <row r="24" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA24" s="47">
+        <f>$AH$12/$AA$16</f>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="47"/>
+    </row>
+    <row r="25" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA25" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="AB25" s="49"/>
+    </row>
+    <row r="26" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+    </row>
+    <row r="28" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA28" s="53">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="53"/>
+    </row>
+    <row r="30" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z30" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA30" s="48">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z18" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="27">
-        <v>8</v>
-      </c>
-      <c r="AB18" s="28"/>
-      <c r="AD18" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-    </row>
-    <row r="19" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z19" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA19" s="27">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="28"/>
-      <c r="AD19" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE19" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF19" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG19" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z20" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA20" s="27">
-        <v>10</v>
-      </c>
-      <c r="AB20" s="28"/>
-      <c r="AD20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="25">
-        <v>2</v>
-      </c>
-      <c r="AG20" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z21" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA21" s="31">
-        <f>ROUNDUP($AA$18/2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="AB21" s="31"/>
-    </row>
-    <row r="22" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z22" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA22" s="31">
-        <f>ROUNDUP(($AA$20-$AA$21)/$AA$19,0)</f>
-        <v>6</v>
-      </c>
-      <c r="AB22" s="31"/>
-    </row>
-    <row r="24" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z24" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA24" s="55">
-        <f>$AH$12/$AA$16</f>
-        <v>1</v>
-      </c>
-      <c r="AB24" s="55"/>
-    </row>
-    <row r="25" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z25" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA25" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AB25" s="28"/>
-    </row>
-    <row r="26" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
+      <c r="AB30" s="49"/>
+    </row>
+    <row r="31" spans="26:33" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z31" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA31" s="62">
+        <f>$AA$30*$AA$18</f>
+        <v>30</v>
+      </c>
+      <c r="AB31" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AG10:AG11"/>
+  <mergeCells count="26">
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="AH10:AH11"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
@@ -2950,13 +3000,19 @@
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA18:AB18"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2977,8 +3033,8 @@
     <col min="2" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:1" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3003,7 +3059,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3018,61 +3074,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="82.44140625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" style="36" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="36" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3081,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:AM22"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
@@ -3206,31 +3262,31 @@
       </c>
     </row>
     <row r="12" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="O12" s="14" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="O12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="V12" s="14" t="s">
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+      <c r="V12" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="16"/>
-      <c r="AC12" s="14" t="s">
+      <c r="W12" s="56"/>
+      <c r="X12" s="57"/>
+      <c r="AC12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
-      <c r="AJ12" s="14" t="s">
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AJ12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="16"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="57"/>
     </row>
     <row r="14" spans="5:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="3"/>
@@ -3345,31 +3401,31 @@
       </c>
     </row>
     <row r="22" spans="4:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="O22" s="14" t="s">
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
+      <c r="O22" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16"/>
-      <c r="V22" s="14" t="s">
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57"/>
+      <c r="V22" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="16"/>
-      <c r="AC22" s="14" t="s">
+      <c r="W22" s="56"/>
+      <c r="X22" s="57"/>
+      <c r="AC22" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="16"/>
-      <c r="AI22" s="14" t="s">
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AI22" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="16"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3384,7 +3440,7 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="AI22:AK22"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3412,7 +3468,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3421,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -3454,7 +3510,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3471,7 +3527,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
@@ -3486,7 +3542,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5" t="s">
         <v>60</v>
       </c>
@@ -3498,8 +3554,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3510,8 +3566,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="5" t="s">
         <v>65</v>
       </c>
@@ -3520,7 +3576,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
@@ -3532,10 +3588,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="60" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -3546,8 +3602,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="8" t="s">
         <v>111</v>
       </c>
@@ -3557,8 +3613,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="78" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="11" t="s">
         <v>106</v>
       </c>
@@ -3567,8 +3623,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3579,16 +3635,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3599,14 +3655,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
@@ -3618,8 +3674,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="58" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -3630,15 +3686,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -3646,15 +3702,15 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3665,20 +3721,20 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="11" t="s">
         <v>100</v>
       </c>
@@ -3687,7 +3743,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
@@ -3696,7 +3752,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="8" t="s">
         <v>116</v>
       </c>
@@ -3705,79 +3761,79 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="59"/>
     </row>
     <row r="27" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="58" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="59"/>
     </row>
     <row r="38" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="59"/>
     </row>
     <row r="39" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="59"/>
     </row>
     <row r="40" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3793,7 +3849,7 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A27:A40"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3811,115 +3867,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="91.88671875" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="24.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="91.88671875" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:2" s="17" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="34" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="36" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="36" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="36" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="36" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="37" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="36" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3929,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3942,17 +3998,17 @@
     <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="22" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4049,7 +4105,7 @@
     <row r="19" ht="195.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="195.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4062,9 +4118,9 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4090,52 +4146,52 @@
       <c r="B1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="46" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4693,7 +4749,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32">
       <formula1>词缀效果</formula1>
@@ -4722,7 +4778,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4734,23 +4790,23 @@
     <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="32" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4835,7 +4891,7 @@
     <row r="29" ht="60.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" ht="60.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>